--- a/Documentation/Note d'équipe/Planification sprints.xlsx
+++ b/Documentation/Note d'équipe/Planification sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Session_8\6DY\GrandProphete\GrandsProphetes\Documentation\Note d'équipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A26C196A-C3B1-40B8-8920-62634CD029F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D7593A-F0AC-4425-8B6C-C30636C94338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>GP18</t>
   </si>
@@ -111,12 +111,6 @@
   </si>
   <si>
     <t>Raphaël</t>
-  </si>
-  <si>
-    <t>Maxime</t>
-  </si>
-  <si>
-    <t>Justin</t>
   </si>
   <si>
     <t>GP30</t>
@@ -170,17 +164,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -499,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5432DBD3-68DC-4F34-8D1E-879A62928BB7}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="G16" sqref="G16:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,423 +505,380 @@
     <col min="6" max="6" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>12</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="K7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>24</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3">
         <v>8</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3">
         <v>5</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="2">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3">
         <v>8</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <f>SUM(B3:C24)</f>
         <v>119</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
@@ -936,51 +886,42 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G20:I20"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
@@ -1003,6 +944,14 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Note d'équipe/Planification sprints.xlsx
+++ b/Documentation/Note d'équipe/Planification sprints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Session_8\6DY\GrandProphete\GrandsProphetes\Documentation\Note d'équipe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ÉCOLE SESSION 6\Projet fin\GrandsProphetes\Documentation\Note d'équipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D7593A-F0AC-4425-8B6C-C30636C94338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910E2B78-0961-4A48-B522-24F6A8E1F63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
+    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>GP18</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>Maxime &amp; Laurent</t>
+  </si>
+  <si>
+    <t>Cette tâche a été 3h plus long que prévu, car la libray utiliser est très limité
+ dans son choix d'option d'affichage alors j'ai du trouver un solution alternative
+Problème: Faire afficher une image et pouvoir déclencher une action lorsque le curseur passe dessus.
+Solution: Mettre l'image dans un button retirer le background de l'image.</t>
   </si>
 </sst>
 </file>
@@ -164,19 +170,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -196,7 +205,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -495,412 +504,429 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:I16"/>
+      <selection activeCell="G8" sqref="G8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.3046875" customWidth="1"/>
+    <col min="3" max="3" width="11.23046875" customWidth="1"/>
+    <col min="6" max="6" width="25.23046875" customWidth="1"/>
+    <col min="9" max="9" width="101.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="2"/>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>10</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>12</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>12</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>24</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="78.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>6</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="F15" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>5</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>8</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <f>SUM(B3:C24)</f>
         <v>119</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="G17:I17"/>
@@ -917,41 +943,29 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Note d'équipe/Planification sprints.xlsx
+++ b/Documentation/Note d'équipe/Planification sprints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ÉCOLE SESSION 6\Projet fin\GrandsProphetes\Documentation\Note d'équipe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Session_8\6DY\GrandProphete\GrandsProphetes\Documentation\Note d'équipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910E2B78-0961-4A48-B522-24F6A8E1F63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BA1658-7EDB-4E51-902F-E4E079CDE5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>GP18</t>
   </si>
@@ -135,6 +135,19 @@
  dans son choix d'option d'affichage alors j'ai du trouver un solution alternative
 Problème: Faire afficher une image et pouvoir déclencher une action lorsque le curseur passe dessus.
 Solution: Mettre l'image dans un button retirer le background de l'image.</t>
+  </si>
+  <si>
+    <t>Un gros bug a demandé un nombre important de ressources afin de le corriger. Il s'agit d'un bug qui apparaissait rarement (environ 1 fois sur 10) et qui était causé par plus d'une erreur de codage. Samuel a été le principal programmeur a chercher la solution, mais a aussi été aidé par Laurent, Maxime et Justin
+Il va être nécessaire d'accorder encore quelques heures au prochain sprint pour cette tache afin de terminer le merge de la tache GP05/GP06 ainsi que celui du main contenant tout les commentaires/documentations qui risque de causer quelques conflits.</t>
+  </si>
+  <si>
+    <t>Justin &amp; Samuel</t>
+  </si>
+  <si>
+    <t>Cette tache n'étant pas aussi primordial que GP08, elle n'a pas été fait autant que voulu durant le sprint suite au problème de GP08. Elle sera transféré au prochain sprint</t>
+  </si>
+  <si>
+    <t>---</t>
   </si>
 </sst>
 </file>
@@ -170,10 +183,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,10 +198,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -205,7 +221,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -503,414 +519,453 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5432DBD3-68DC-4F34-8D1E-879A62928BB7}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:I8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.3046875" customWidth="1"/>
-    <col min="3" max="3" width="11.23046875" customWidth="1"/>
-    <col min="6" max="6" width="25.23046875" customWidth="1"/>
-    <col min="9" max="9" width="101.84375" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="25.21875" customWidth="1"/>
+    <col min="9" max="9" width="101.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3"/>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="E3" s="3"/>
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>12</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3"/>
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>24</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="78.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="78.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
         <v>9</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="3"/>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>8</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>5</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>8</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <f>SUM(B3:C24)</f>
         <v>119</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
+        <f>SUM(D3:E24)</f>
+        <v>42.5</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="G10:I10"/>
@@ -927,45 +982,25 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Note d'équipe/Planification sprints.xlsx
+++ b/Documentation/Note d'équipe/Planification sprints.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Session_8\6DY\GrandProphete\GrandsProphetes\Documentation\Note d'équipe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polit\OneDrive\Bureau\Hiver 2023\Projet\Les grands prophètes\GrandsProphetes\Documentation\Note d'équipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BA1658-7EDB-4E51-902F-E4E079CDE5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F5CBCA-33DD-43DA-9692-4B3E18288E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>GP18</t>
   </si>
@@ -148,6 +148,15 @@
   </si>
   <si>
     <t>---</t>
+  </si>
+  <si>
+    <t>Cette tâche a plutôt bien été. Je pensais avoir besoin de plus de temps pour trouver le moyen de garder l'angle de vue entre les graphiques, 
+mais finalement, j'ai trouver la solution assez rapidement. La partie la plus difficile était de garder les boutons par dessus les graphiques. 
+Beaucoup de ressource ont été sur les boutons.</t>
+  </si>
+  <si>
+    <t>Enregistrer les données dans les fichiers c'est une chose, valider ces données c'est un autre défi complètement.
+ Il me manquera donc encore quelques heures pour finir cette tâche, et intégrer un UI qui fonctionnera avec mon code.</t>
   </si>
 </sst>
 </file>
@@ -189,9 +198,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -202,6 +208,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5432DBD3-68DC-4F34-8D1E-879A62928BB7}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:I10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,424 +541,444 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="2"/>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
         <v>13.5</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="2"/>
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>10</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>12</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
         <v>12</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2"/>
       <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>12</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="2"/>
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>24</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>8.5833332999999996</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="78.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>9</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="2"/>
       <c r="F13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>6</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>6</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="2"/>
       <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <v>8.25</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>5</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>8</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <f>SUM(B3:C24)</f>
         <v>119</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
         <f>SUM(D3:E24)</f>
-        <v>42.5</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+        <v>59.3333333</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="G17:I17"/>
@@ -966,41 +995,29 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Note d'équipe/Planification sprints.xlsx
+++ b/Documentation/Note d'équipe/Planification sprints.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polit\OneDrive\Bureau\Hiver 2023\Projet\Les grands prophètes\GrandsProphetes\Documentation\Note d'équipe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cegep\Session 6\Projet\GrandsProphetes\Documentation\Note d'équipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F5CBCA-33DD-43DA-9692-4B3E18288E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10948C37-AC86-44A3-8ABD-AB87B9A32C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>GP18</t>
   </si>
@@ -116,9 +116,6 @@
     <t>GP30</t>
   </si>
   <si>
-    <t>Laurent &amp; Maxime</t>
-  </si>
-  <si>
     <t>Kevin &amp; Justin &amp; Maxime</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
   </si>
   <si>
     <t>GP33</t>
-  </si>
-  <si>
-    <t>Maxime &amp; Laurent</t>
   </si>
   <si>
     <t>Cette tâche a été 3h plus long que prévu, car la libray utiliser est très limité
@@ -157,6 +151,30 @@
   <si>
     <t>Enregistrer les données dans les fichiers c'est une chose, valider ces données c'est un autre défi complètement.
  Il me manquera donc encore quelques heures pour finir cette tâche, et intégrer un UI qui fonctionnera avec mon code.</t>
+  </si>
+  <si>
+    <t>Nous avons terminé le move plutôt rapidement, et nous avons testé avec de multiples valeurs. Nous n'avons pas découvert de gros nouveaux problèmes, donc le temps pris était plus petit que le temps prévu</t>
+  </si>
+  <si>
+    <t>Maxime : J'ai installé et généré la documentation automatique pour le code déjà présent. J'ai passé beaucoup de temps à comprendre comment installer le module sphinx et à générer correctement la documentation. Il reste de la documentation à faire pour les autres modules, alors les heures restantes devront être passées à la semaine prochaine.</t>
+  </si>
+  <si>
+    <t>Samuel + Maxime + Justin</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>5,3</t>
+  </si>
+  <si>
+    <t>J'ai terminé la tâche un peu plus vite que prévue parce qu'à la base, on était supposé travaillé à 2 sur la tâches, mais individuellement, ça à été plus rapide</t>
+  </si>
+  <si>
+    <t>La tâche n'a pas été complété encore donc il reste encore des choses à faire sur la tâche</t>
+  </si>
+  <si>
+    <t>Temps respecté</t>
   </si>
 </sst>
 </file>
@@ -198,19 +216,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5432DBD3-68DC-4F34-8D1E-879A62928BB7}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:I15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,428 +559,472 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3"/>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
         <v>13.5</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3"/>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="G4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
         <v>12</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
       <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="G5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>12</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3"/>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>24</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3"/>
       <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="3"/>
       <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
         <v>8.5833332999999996</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="3"/>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="78.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
         <v>9</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="3"/>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
       <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="G14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>8</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
         <v>8.25</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
       <c r="F15" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3">
         <v>5</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3"/>
       <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="G16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3">
         <v>8</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <f>SUM(B3:C24)</f>
         <v>119</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
         <f>SUM(D3:E24)</f>
-        <v>59.3333333</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+        <v>83.333333299999993</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="G10:I10"/>
@@ -979,45 +1041,25 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Note d'équipe/Planification sprints.xlsx
+++ b/Documentation/Note d'équipe/Planification sprints.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cegep\Session 6\Projet\GrandsProphetes\Documentation\Note d'équipe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Session_8\6DY\GrandProphete\GrandsProphetes\Documentation\Note d'équipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10948C37-AC86-44A3-8ABD-AB87B9A32C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FFCB96-D1AA-4DB5-9BA0-EDC15AEBC183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>GP18</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Cette tache n'étant pas aussi primordial que GP08, elle n'a pas été fait autant que voulu durant le sprint suite au problème de GP08. Elle sera transféré au prochain sprint</t>
   </si>
   <si>
-    <t>---</t>
-  </si>
-  <si>
     <t>Cette tâche a plutôt bien été. Je pensais avoir besoin de plus de temps pour trouver le moyen de garder l'angle de vue entre les graphiques, 
 mais finalement, j'ai trouver la solution assez rapidement. La partie la plus difficile était de garder les boutons par dessus les graphiques. 
 Beaucoup de ressource ont été sur les boutons.</t>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>Temps respecté</t>
+  </si>
+  <si>
+    <t>Transférer au prochain sprint</t>
   </si>
 </sst>
 </file>
@@ -216,19 +216,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5432DBD3-68DC-4F34-8D1E-879A62928BB7}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:I16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,53 +559,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="2"/>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="E3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>30</v>
@@ -617,19 +617,19 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>10</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
         <v>6</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="2"/>
       <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -638,19 +638,19 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>12</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
         <v>12</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2"/>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -659,31 +659,31 @@
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>12</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="2"/>
       <c r="F7" t="s">
         <v>18</v>
       </c>
@@ -697,19 +697,19 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>24</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
         <v>8</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="2"/>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -718,120 +718,124 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="G10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="2"/>
       <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="G11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>8.5833332999999996</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="2"/>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="78.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>9</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="2"/>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>6</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>6</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="2"/>
       <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -840,175 +844,187 @@
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
         <v>8.25</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="2"/>
       <c r="F15" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>5</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
         <v>5</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="2"/>
       <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="G16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>8</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
         <v>3</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="2"/>
       <c r="F17" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="G17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <f>SUM(B3:C24)</f>
         <v>119</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
         <f>SUM(D3:E24)</f>
-        <v>83.333333299999993</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+        <v>85.833333299999993</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="G17:I17"/>
@@ -1025,41 +1041,29 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Note d'équipe/Planification sprints.xlsx
+++ b/Documentation/Note d'équipe/Planification sprints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Session_8\6DY\GrandProphete\GrandsProphetes\Documentation\Note d'équipe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\battl\Desktop\ProjetFinTech\GrandsProphetes\Documentation\Note d'équipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FFCB96-D1AA-4DB5-9BA0-EDC15AEBC183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A158466-11A6-4D12-9AD6-8708C8E67DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>GP18</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Nous avons terminé le move plutôt rapidement, et nous avons testé avec de multiples valeurs. Nous n'avons pas découvert de gros nouveaux problèmes, donc le temps pris était plus petit que le temps prévu</t>
   </si>
   <si>
-    <t>Maxime : J'ai installé et généré la documentation automatique pour le code déjà présent. J'ai passé beaucoup de temps à comprendre comment installer le module sphinx et à générer correctement la documentation. Il reste de la documentation à faire pour les autres modules, alors les heures restantes devront être passées à la semaine prochaine.</t>
-  </si>
-  <si>
     <t>Samuel + Maxime + Justin</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>Transférer au prochain sprint</t>
+  </si>
+  <si>
+    <t>Maxime : J'ai installé et généré la documentation automatique pour le code déjà présent. J'ai passé beaucoup de temps à comprendre comment installer le module sphinx et à générer correctement la documentation. Il reste de la documentation à faire pour les autres modules, alors les heures restantes devront être passées à la semaine prochaine. Justin: PyDoc et Sphinx ont beaucoup aidé à réaliser cette tâche ce pourquoi le temps réel est plus petit que le temps estimé, la documentation sur les modules dont j'ai travaillé jusqu'à présent a été faite.</t>
   </si>
 </sst>
 </file>
@@ -216,18 +216,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -248,7 +248,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -546,11 +546,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5432DBD3-68DC-4F34-8D1E-879A62928BB7}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.21875" customWidth="1"/>
@@ -559,53 +559,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3"/>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3"/>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>30</v>
@@ -617,14 +617,14 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="F4" t="s">
         <v>19</v>
       </c>
@@ -638,52 +638,56 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
         <v>12</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
       <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="G5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="G6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>12</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3"/>
       <c r="F7" t="s">
         <v>18</v>
       </c>
@@ -697,19 +701,19 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>24</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3"/>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -718,40 +722,40 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="3"/>
       <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="G9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -760,255 +764,275 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="3"/>
       <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="G11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
         <v>8.5833332999999996</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="3"/>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="78.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
         <v>9</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="3"/>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
       <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="G14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>8</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
         <v>8.25</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
       <c r="F15" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>5</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="3"/>
       <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="G16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>8</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="3"/>
       <c r="F17" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="G17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <f>SUM(B3:C24)</f>
         <v>119</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
         <f>SUM(D3:E24)</f>
-        <v>85.833333299999993</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+        <v>95.833333299999993</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="G10:I10"/>
@@ -1025,45 +1049,25 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Note d'équipe/Planification sprints.xlsx
+++ b/Documentation/Note d'équipe/Planification sprints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\battl\Desktop\ProjetFinTech\GrandsProphetes\Documentation\Note d'équipe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Session_8\6DY\GrandProphete\GrandsProphetes\Documentation\Note d'équipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A158466-11A6-4D12-9AD6-8708C8E67DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E761CDE1-B0BA-4F35-A487-76B4E7B0BCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
 Il va être nécessaire d'accorder encore quelques heures au prochain sprint pour cette tache afin de terminer le merge de la tache GP05/GP06 ainsi que celui du main contenant tout les commentaires/documentations qui risque de causer quelques conflits.</t>
   </si>
   <si>
-    <t>Justin &amp; Samuel</t>
-  </si>
-  <si>
     <t>Cette tache n'étant pas aussi primordial que GP08, elle n'a pas été fait autant que voulu durant le sprint suite au problème de GP08. Elle sera transféré au prochain sprint</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>Maxime : J'ai installé et généré la documentation automatique pour le code déjà présent. J'ai passé beaucoup de temps à comprendre comment installer le module sphinx et à générer correctement la documentation. Il reste de la documentation à faire pour les autres modules, alors les heures restantes devront être passées à la semaine prochaine. Justin: PyDoc et Sphinx ont beaucoup aidé à réaliser cette tâche ce pourquoi le temps réel est plus petit que le temps estimé, la documentation sur les modules dont j'ai travaillé jusqu'à présent a été faite.</t>
+  </si>
+  <si>
+    <t>Justin</t>
   </si>
 </sst>
 </file>
@@ -216,10 +216,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -228,7 +228,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -248,7 +248,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -547,10 +547,10 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E4"/>
+      <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.21875" customWidth="1"/>
@@ -559,53 +559,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="2"/>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
         <v>18</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>30</v>
@@ -617,19 +617,19 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>10</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
         <v>8</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="2"/>
       <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -638,61 +638,61 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>12</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
         <v>12</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2"/>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>12</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="2"/>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -701,19 +701,19 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>24</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
         <v>12</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="2"/>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -722,40 +722,40 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -764,259 +764,271 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="2"/>
       <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="G11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
-        <v>8.5833332999999996</v>
-      </c>
-      <c r="E12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="78.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>9</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="2"/>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>6</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>6</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="2"/>
       <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
         <v>8.25</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="2"/>
       <c r="F15" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>5</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
         <v>5</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="2"/>
       <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="G16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>8</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
         <v>3</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="2"/>
       <c r="F17" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="G17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <f>SUM(B3:C24)</f>
         <v>119</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
         <f>SUM(D3:E24)</f>
-        <v>95.833333299999993</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+        <v>95.75</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="G17:I17"/>
@@ -1033,41 +1045,29 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Note d'équipe/Planification sprints.xlsx
+++ b/Documentation/Note d'équipe/Planification sprints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Session_8\6DY\GrandProphete\GrandsProphetes\Documentation\Note d'équipe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\battl\Desktop\ProjetFinTech\GrandsProphetes\Documentation\Note d'équipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E761CDE1-B0BA-4F35-A487-76B4E7B0BCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336381E5-B5C2-498D-AADB-75C7AD0DEEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>GP18</t>
   </si>
@@ -145,9 +145,6 @@
   <si>
     <t>Enregistrer les données dans les fichiers c'est une chose, valider ces données c'est un autre défi complètement.
  Il me manquera donc encore quelques heures pour finir cette tâche, et intégrer un UI qui fonctionnera avec mon code.</t>
-  </si>
-  <si>
-    <t>Nous avons terminé le move plutôt rapidement, et nous avons testé avec de multiples valeurs. Nous n'avons pas découvert de gros nouveaux problèmes, donc le temps pris était plus petit que le temps prévu</t>
   </si>
   <si>
     <t>Samuel + Maxime + Justin</t>
@@ -216,10 +213,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -228,7 +225,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -248,7 +245,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -546,66 +543,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5432DBD3-68DC-4F34-8D1E-879A62928BB7}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.21875" customWidth="1"/>
     <col min="6" max="6" width="25.21875" customWidth="1"/>
-    <col min="9" max="9" width="101.88671875" customWidth="1"/>
+    <col min="9" max="9" width="156.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3"/>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
         <v>18</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3"/>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>30</v>
@@ -617,19 +614,19 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -638,56 +635,56 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
         <v>12</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3"/>
       <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>12</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3"/>
       <c r="F7" t="s">
         <v>18</v>
       </c>
@@ -701,19 +698,19 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>24</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
         <v>12</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3"/>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -722,40 +719,40 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="3"/>
       <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="G9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -764,255 +761,275 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="3"/>
       <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="G11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
         <v>8.5</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="3"/>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="78.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
         <v>9</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="3"/>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
       <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>8</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
         <v>8.25</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
       <c r="F15" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>5</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="3"/>
       <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="G16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>8</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="3"/>
       <c r="F17" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="G17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <f>SUM(B3:C24)</f>
         <v>119</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
         <f>SUM(D3:E24)</f>
-        <v>95.75</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+        <v>97.75</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="G10:I10"/>
@@ -1029,45 +1046,25 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Note d'équipe/Planification sprints.xlsx
+++ b/Documentation/Note d'équipe/Planification sprints.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\battl\Desktop\ProjetFinTech\GrandsProphetes\Documentation\Note d'équipe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Session_8\6DY\GrandProphete\GrandsProphetes\Documentation\Note d'équipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336381E5-B5C2-498D-AADB-75C7AD0DEEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F262D83-9DFD-4804-86FA-F285E8DCFD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>GP18</t>
   </si>
@@ -172,6 +173,42 @@
   </si>
   <si>
     <t>Justin</t>
+  </si>
+  <si>
+    <t>GP37</t>
+  </si>
+  <si>
+    <t>GP34</t>
+  </si>
+  <si>
+    <t>GP28</t>
+  </si>
+  <si>
+    <t>GP07</t>
+  </si>
+  <si>
+    <t>GP35</t>
+  </si>
+  <si>
+    <t>Maxime</t>
+  </si>
+  <si>
+    <t>Samuel, Kevin, Raphaël</t>
+  </si>
+  <si>
+    <t>Samuel, Laurent</t>
+  </si>
+  <si>
+    <t>Justin, Maxime</t>
+  </si>
+  <si>
+    <t>GP22-1</t>
+  </si>
+  <si>
+    <t>GP22-2</t>
+  </si>
+  <si>
+    <t>Planification Sprints</t>
   </si>
 </sst>
 </file>
@@ -213,10 +250,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -225,7 +262,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -245,7 +282,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -543,11 +580,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5432DBD3-68DC-4F34-8D1E-879A62928BB7}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:I9"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.21875" customWidth="1"/>
@@ -556,51 +593,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="2"/>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
         <v>18</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="2"/>
       <c r="F3" t="s">
         <v>34</v>
       </c>
@@ -614,14 +651,14 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>10</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
         <v>10</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="2"/>
       <c r="F4" t="s">
         <v>19</v>
       </c>
@@ -635,56 +672,56 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>12</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
         <v>12</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2"/>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
       <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>12</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="2"/>
       <c r="F7" t="s">
         <v>18</v>
       </c>
@@ -698,14 +735,14 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>24</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
         <v>12</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="2"/>
       <c r="F8" t="s">
         <v>26</v>
       </c>
@@ -719,35 +756,35 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="2"/>
       <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="2"/>
       <c r="F10" t="s">
         <v>23</v>
       </c>
@@ -761,259 +798,271 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="2"/>
       <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>8.5</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="2"/>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="78.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>9</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="2"/>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>6</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>6</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="2"/>
       <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
         <v>8.25</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="2"/>
       <c r="F15" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>5</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
         <v>5</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="2"/>
       <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>8</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
         <v>3</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="2"/>
       <c r="F17" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <f>SUM(B3:C24)</f>
         <v>119</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
         <f>SUM(D3:E24)</f>
         <v>97.75</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="E25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="G17:I17"/>
@@ -1030,41 +1079,489 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F37B18-6DC2-4F92-80AB-8018DE843EF7}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="87.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="2">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="2">
+        <f>SUM(B3:C25)</f>
+        <v>63</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <f>SUM(D3:E25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="76">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Note d'équipe/Planification sprints.xlsx
+++ b/Documentation/Note d'équipe/Planification sprints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Session_8\6DY\GrandProphete\GrandsProphetes\Documentation\Note d'équipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F262D83-9DFD-4804-86FA-F285E8DCFD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409B1EAB-6AA7-4A1B-B4E2-7F2935C1908D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1117,6 +1117,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
     <col min="6" max="6" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="87.6640625" customWidth="1"/>
   </cols>

--- a/Documentation/Note d'équipe/Planification sprints.xlsx
+++ b/Documentation/Note d'équipe/Planification sprints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Session_8\6DY\GrandProphete\GrandsProphetes\Documentation\Note d'équipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409B1EAB-6AA7-4A1B-B4E2-7F2935C1908D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C6EED4-0576-4653-A355-A49EA0070274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <t>GP18</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Planification Sprints</t>
+  </si>
+  <si>
+    <t>Le temps a bien été estimé. Il a pris en compte les possibilités de problèmes reliés au merge (qui ont eu lieu, mais de moins grandes ampleurs que celui du sprint précédent). La tache maintenant terminer, nous pouvons par la suite procéder au développement des dernières fonctionnalités, aux tests des méthodes et à la rédaction des documentations.</t>
   </si>
 </sst>
 </file>
@@ -250,10 +253,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -262,7 +265,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,51 +596,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3"/>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
         <v>18</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3"/>
       <c r="F3" t="s">
         <v>34</v>
       </c>
@@ -651,14 +654,14 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
         <v>10</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3"/>
       <c r="F4" t="s">
         <v>19</v>
       </c>
@@ -672,56 +675,56 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
         <v>12</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3"/>
       <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>12</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3"/>
       <c r="F7" t="s">
         <v>18</v>
       </c>
@@ -735,14 +738,14 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>24</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
         <v>12</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3"/>
       <c r="F8" t="s">
         <v>26</v>
       </c>
@@ -756,35 +759,35 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="3"/>
       <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="3"/>
       <c r="F10" t="s">
         <v>23</v>
       </c>
@@ -798,255 +801,275 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="3"/>
       <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
         <v>8.5</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="3"/>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="78.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
         <v>9</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="3"/>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
       <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>8</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
         <v>8.25</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
       <c r="F15" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>5</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="3"/>
       <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>8</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="3"/>
       <c r="F17" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <f>SUM(B3:C24)</f>
         <v>119</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
         <f>SUM(D3:E24)</f>
         <v>97.75</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="G10:I10"/>
@@ -1063,45 +1086,25 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1112,7 +1115,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G7" sqref="G7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1123,49 +1126,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3"/>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" t="s">
         <v>24</v>
       </c>
@@ -1177,12 +1180,12 @@
       <c r="A4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" t="s">
         <v>22</v>
       </c>
@@ -1194,46 +1197,50 @@
       <c r="A5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>6</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" t="s">
         <v>48</v>
       </c>
@@ -1245,12 +1252,12 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" t="s">
         <v>48</v>
       </c>
@@ -1262,29 +1269,29 @@
       <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" t="s">
         <v>22</v>
       </c>
@@ -1296,239 +1303,222 @@
       <c r="A11" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" t="s">
         <v>50</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>5</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>3</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <f>SUM(B3:C25)</f>
         <v>63</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3">
         <f>SUM(D3:E25)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="G10:I10"/>
@@ -1538,31 +1528,48 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Note d'équipe/Planification sprints.xlsx
+++ b/Documentation/Note d'équipe/Planification sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Session_8\6DY\GrandProphete\GrandsProphetes\Documentation\Note d'équipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C6EED4-0576-4653-A355-A49EA0070274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E0624A-FFEA-477E-8B3B-15993E195FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>GP18</t>
   </si>
@@ -212,6 +212,15 @@
   </si>
   <si>
     <t>Le temps a bien été estimé. Il a pris en compte les possibilités de problèmes reliés au merge (qui ont eu lieu, mais de moins grandes ampleurs que celui du sprint précédent). La tache maintenant terminer, nous pouvons par la suite procéder au développement des dernières fonctionnalités, aux tests des méthodes et à la rédaction des documentations.</t>
+  </si>
+  <si>
+    <t>GP38</t>
+  </si>
+  <si>
+    <t>GP39</t>
+  </si>
+  <si>
+    <t>Samuel, Kevin</t>
   </si>
 </sst>
 </file>
@@ -253,10 +262,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -265,7 +274,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,51 +605,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="2"/>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
         <v>18</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="2"/>
       <c r="F3" t="s">
         <v>34</v>
       </c>
@@ -654,14 +663,14 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>10</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
         <v>10</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="2"/>
       <c r="F4" t="s">
         <v>19</v>
       </c>
@@ -675,56 +684,56 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>12</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
         <v>12</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2"/>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
       <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>12</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="2"/>
       <c r="F7" t="s">
         <v>18</v>
       </c>
@@ -738,14 +747,14 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>24</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
         <v>12</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="2"/>
       <c r="F8" t="s">
         <v>26</v>
       </c>
@@ -759,35 +768,35 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="2"/>
       <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="2"/>
       <c r="F10" t="s">
         <v>23</v>
       </c>
@@ -801,259 +810,271 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="2"/>
       <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>8.5</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="2"/>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="78.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>9</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="2"/>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>6</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>6</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="2"/>
       <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
         <v>8.25</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="2"/>
       <c r="F15" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>5</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
         <v>5</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="2"/>
       <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>8</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
         <v>3</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="2"/>
       <c r="F17" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <f>SUM(B3:C24)</f>
         <v>119</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
         <f>SUM(D3:E24)</f>
         <v>97.75</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="E25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="G17:I17"/>
@@ -1070,41 +1091,29 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1115,7 +1124,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:I7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1126,49 +1135,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="2"/>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" t="s">
         <v>24</v>
       </c>
@@ -1180,12 +1189,12 @@
       <c r="A4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" t="s">
         <v>22</v>
       </c>
@@ -1197,31 +1206,31 @@
       <c r="A5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="F5" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>6</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>6</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
       <c r="F6" t="s">
         <v>18</v>
       </c>
@@ -1235,12 +1244,12 @@
       <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" t="s">
         <v>48</v>
       </c>
@@ -1252,12 +1261,12 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" t="s">
         <v>48</v>
       </c>
@@ -1269,29 +1278,29 @@
       <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>10</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" t="s">
         <v>22</v>
       </c>
@@ -1303,222 +1312,255 @@
       <c r="A11" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>7</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="F13" t="s">
         <v>50</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>5</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="F15" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <f>SUM(B3:C25)</f>
-        <v>63</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3">
+        <v>68</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
         <f>SUM(D3:E25)</f>
         <v>6</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="E26" s="2"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="G10:I10"/>
@@ -1528,48 +1570,31 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Note d'équipe/Planification sprints.xlsx
+++ b/Documentation/Note d'équipe/Planification sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Session_8\6DY\GrandProphete\GrandsProphetes\Documentation\Note d'équipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E0624A-FFEA-477E-8B3B-15993E195FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6604574-625D-4E00-8C0C-28CD5A687682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>GP18</t>
   </si>
@@ -196,9 +196,6 @@
     <t>Samuel, Kevin, Raphaël</t>
   </si>
   <si>
-    <t>Samuel, Laurent</t>
-  </si>
-  <si>
     <t>Justin, Maxime</t>
   </si>
   <si>
@@ -220,7 +217,55 @@
     <t>GP39</t>
   </si>
   <si>
-    <t>Samuel, Kevin</t>
+    <t>L'implantation des boutons a demandé une refonte du code ce qui a demandé un peu plus de temps. La tache est tout de même rester dans le max indiqué dans le document de chemin critique</t>
+  </si>
+  <si>
+    <t>Laurent, Samuel, Kevin</t>
+  </si>
+  <si>
+    <t>Samuel, Kevin, Laurent</t>
+  </si>
+  <si>
+    <t>Samuel, Laurent, Raphaël, Kevin</t>
+  </si>
+  <si>
+    <t>Environ 3h par personne, il nous reste un peu de rédaction à faire pour la simulation et le formulaire, ainsi que la mise en page</t>
+  </si>
+  <si>
+    <t>La liaison avec les graphiques a causer des petit problème mais le temps accordé n'a pas dépasser le max qui avait été accordé</t>
+  </si>
+  <si>
+    <t>L'ajout des boutons a été bien évaluer puisque Kevin connaissait déjà et avait déjà ajouter plusieurs boutons</t>
+  </si>
+  <si>
+    <t>À faire lors de la dernière semaine</t>
+  </si>
+  <si>
+    <t>La recompilation de la documentation demandait d'installer les librairies ce qui a demandé un peu plus de temps que le temps estimé, mais n'a pas dépasser le maximum</t>
+  </si>
+  <si>
+    <t>N'a pas été fait puisque la tache est optionnelle par rapport au autre tache critique</t>
+  </si>
+  <si>
+    <t>La création d'un exécutable est plus dur qu'attendu compte tenu des librairies. Il va être nécessaire d'accorder du temps à la prochaine semaine</t>
+  </si>
+  <si>
+    <t>Prévisualiser le territoire a pris le temps estimé malgré un petit problème</t>
+  </si>
+  <si>
+    <t>Justin a travaillé seul sur la tache et a rencontrer plusieurs problèmes qui ont résulter en une grande quantité de temps</t>
+  </si>
+  <si>
+    <t>Jumelé avec GP22-2, les problèmes de GP22 ont fait que moins de tests ont été développé.</t>
+  </si>
+  <si>
+    <t>Temps estimé, il s'agissait uniquement de la rédaction de doc</t>
+  </si>
+  <si>
+    <t>La tache a été réaliser a 2-3 personne ce qui a accélérer un peu le temps, mais le temps accordé est plus gros comme il était multiplier par 3</t>
+  </si>
+  <si>
+    <t>L'ajout d'une barre de progression a été assez rapide suite à l'ajout du thread</t>
   </si>
 </sst>
 </file>
@@ -262,10 +307,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -274,7 +319,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,51 +650,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3"/>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
         <v>18</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3"/>
       <c r="F3" t="s">
         <v>34</v>
       </c>
@@ -663,14 +708,14 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
         <v>10</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3"/>
       <c r="F4" t="s">
         <v>19</v>
       </c>
@@ -684,56 +729,56 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
         <v>12</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3"/>
       <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>12</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3"/>
       <c r="F7" t="s">
         <v>18</v>
       </c>
@@ -747,14 +792,14 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>24</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
         <v>12</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3"/>
       <c r="F8" t="s">
         <v>26</v>
       </c>
@@ -768,35 +813,35 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="3"/>
       <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="3"/>
       <c r="F10" t="s">
         <v>23</v>
       </c>
@@ -810,255 +855,275 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="3"/>
       <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
         <v>8.5</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="3"/>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="78.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
         <v>9</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="3"/>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
       <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>8</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
         <v>8.25</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
       <c r="F15" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>5</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="3"/>
       <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>8</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="3"/>
       <c r="F17" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <f>SUM(B3:C24)</f>
         <v>119</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
         <f>SUM(D3:E24)</f>
         <v>97.75</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="G10:I10"/>
@@ -1075,45 +1140,25 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1124,64 +1169,68 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G17" sqref="G17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="87.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3"/>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3"/>
       <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
@@ -1189,16 +1238,20 @@
       <c r="A4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
@@ -1206,54 +1259,62 @@
       <c r="A5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="G5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>6</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
         <v>6</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3"/>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3"/>
       <c r="F7" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
@@ -1261,16 +1322,20 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3"/>
       <c r="F8" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
@@ -1278,289 +1343,304 @@
       <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="G9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="2">
+        <v>51</v>
+      </c>
+      <c r="B10" s="3">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="2">
+        <v>52</v>
+      </c>
+      <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="G12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>5</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="G14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>3</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3"/>
       <c r="F15" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="G15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>3</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="F17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <f>SUM(B3:C25)</f>
         <v>68</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3">
         <f>SUM(D3:E25)</f>
-        <v>6</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="G10:I10"/>
@@ -1570,31 +1650,48 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Note d'équipe/Planification sprints.xlsx
+++ b/Documentation/Note d'équipe/Planification sprints.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Session_8\6DY\GrandProphete\GrandsProphetes\Documentation\Note d'équipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6604574-625D-4E00-8C0C-28CD5A687682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A23AB0-5E87-4B21-8BF7-13DE4A07D7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 3" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 4" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="89">
   <si>
     <t>GP18</t>
   </si>
@@ -205,9 +206,6 @@
     <t>GP22-2</t>
   </si>
   <si>
-    <t>Planification Sprints</t>
-  </si>
-  <si>
     <t>Le temps a bien été estimé. Il a pris en compte les possibilités de problèmes reliés au merge (qui ont eu lieu, mais de moins grandes ampleurs que celui du sprint précédent). La tache maintenant terminer, nous pouvons par la suite procéder au développement des dernières fonctionnalités, aux tests des méthodes et à la rédaction des documentations.</t>
   </si>
   <si>
@@ -266,6 +264,54 @@
   </si>
   <si>
     <t>L'ajout d'une barre de progression a été assez rapide suite à l'ajout du thread</t>
+  </si>
+  <si>
+    <t>Planification Sprints 3</t>
+  </si>
+  <si>
+    <t>GP40</t>
+  </si>
+  <si>
+    <t>GP41</t>
+  </si>
+  <si>
+    <t>GP42</t>
+  </si>
+  <si>
+    <t>GP43</t>
+  </si>
+  <si>
+    <t>GP44</t>
+  </si>
+  <si>
+    <t>GP47</t>
+  </si>
+  <si>
+    <t>GP48</t>
+  </si>
+  <si>
+    <t>GP49</t>
+  </si>
+  <si>
+    <t>Planification Sprints 4</t>
+  </si>
+  <si>
+    <t>Maxime, Raphaël</t>
+  </si>
+  <si>
+    <t>Maxime, Kevin</t>
+  </si>
+  <si>
+    <t>Justin, Samuel</t>
+  </si>
+  <si>
+    <t>Samuel, Laurent</t>
+  </si>
+  <si>
+    <t>Un petit oubli dans un développement à nécessité un peu plus de temps, mais n'a pas ralenti la progression du développement</t>
+  </si>
+  <si>
+    <t>La rédaction de la documentation utilisateur semblait être beaucoup plus chargé qu'elle ne l'a été. Le temps gagné a pu être utiliser dans d'autres taches pour s'assurer que le produit final est le plus complet possible</t>
   </si>
 </sst>
 </file>
@@ -307,10 +353,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -319,7 +365,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5432DBD3-68DC-4F34-8D1E-879A62928BB7}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:I25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,51 +696,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="2"/>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
         <v>18</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="2"/>
       <c r="F3" t="s">
         <v>34</v>
       </c>
@@ -708,14 +754,14 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>10</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
         <v>10</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="2"/>
       <c r="F4" t="s">
         <v>19</v>
       </c>
@@ -729,56 +775,56 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>12</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
         <v>12</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2"/>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
       <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>12</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="2"/>
       <c r="F7" t="s">
         <v>18</v>
       </c>
@@ -792,14 +838,14 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>24</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
         <v>12</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="2"/>
       <c r="F8" t="s">
         <v>26</v>
       </c>
@@ -813,35 +859,35 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="2"/>
       <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="2"/>
       <c r="F10" t="s">
         <v>23</v>
       </c>
@@ -855,259 +901,271 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="2"/>
       <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>8.5</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="2"/>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="78.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>9</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="2"/>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>6</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>6</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="2"/>
       <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
         <v>8.25</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="2"/>
       <c r="F15" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>5</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
         <v>5</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="2"/>
       <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>8</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
         <v>3</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="2"/>
       <c r="F17" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <f>SUM(B3:C24)</f>
         <v>119</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
         <f>SUM(D3:E24)</f>
         <v>97.75</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="E25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="G17:I17"/>
@@ -1124,41 +1182,29 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1168,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F37B18-6DC2-4F92-80AB-8018DE843EF7}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1180,56 +1226,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="A1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="2"/>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="2"/>
       <c r="F3" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1238,19 +1284,19 @@
       <c r="A4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="2"/>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1259,40 +1305,40 @@
       <c r="A5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2"/>
       <c r="F5" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>6</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>6</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1301,19 +1347,19 @@
       <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="2"/>
       <c r="F7" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1322,19 +1368,19 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="2"/>
       <c r="F8" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1343,36 +1389,36 @@
       <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>10</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1381,19 +1427,19 @@
       <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>16</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="2"/>
       <c r="F11" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1402,19 +1448,19 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>7</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>8</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="2"/>
       <c r="F12" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1423,224 +1469,241 @@
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>12</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="2"/>
       <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>5</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>2</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="2"/>
       <c r="F14" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
         <v>3</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="2"/>
       <c r="F15" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="3">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
         <v>2</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="2"/>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="3">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2">
         <v>3</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
         <v>6</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="2"/>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <f>SUM(B3:C25)</f>
         <v>68</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
         <f>SUM(D3:E25)</f>
         <v>69</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="E26" s="2"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="G10:I10"/>
@@ -1650,48 +1713,525 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8331770-D25B-4F25-A224-45FD2E38D898}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="100.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="2">
+        <f>SUM(B3:C25)</f>
+        <v>69</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <f>SUM(D3:E25)</f>
+        <v>13.5</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="76">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:I17"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Note d'équipe/Planification sprints.xlsx
+++ b/Documentation/Note d'équipe/Planification sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Session_8\6DY\GrandProphete\GrandsProphetes\Documentation\Note d'équipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A23AB0-5E87-4B21-8BF7-13DE4A07D7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530BF4B2-99A9-4F44-B666-4A01CDAFD53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A238F9CB-7619-4BEE-9043-D0C8AF98FF35}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
   <si>
     <t>GP18</t>
   </si>
@@ -269,9 +269,6 @@
     <t>Planification Sprints 3</t>
   </si>
   <si>
-    <t>GP40</t>
-  </si>
-  <si>
     <t>GP41</t>
   </si>
   <si>
@@ -312,6 +309,33 @@
   </si>
   <si>
     <t>La rédaction de la documentation utilisateur semblait être beaucoup plus chargé qu'elle ne l'a été. Le temps gagné a pu être utiliser dans d'autres taches pour s'assurer que le produit final est le plus complet possible</t>
+  </si>
+  <si>
+    <t>GP40-GP46</t>
+  </si>
+  <si>
+    <t>Plus rapide que prévu, la tache a demandé moins de modification de code que prévu</t>
+  </si>
+  <si>
+    <t>Le temps utiliser en moins a été mis dans GP33 qui était la suite de la tache</t>
+  </si>
+  <si>
+    <t>Laurent, Maxime</t>
+  </si>
+  <si>
+    <t>A demander de modifier tout le code de création du fichier Json</t>
+  </si>
+  <si>
+    <t>La modification des échelles des graphiques étaient similaire à la modification de l'angle qui avait été fait ce qui a accélérer le développement</t>
+  </si>
+  <si>
+    <t>Un peu au dessus du temps prévu mais sous le maximum accordé</t>
+  </si>
+  <si>
+    <t>La compilation de la documentation programmeur a été plus rapide parce qu'il n'a pas fallu réinstaller les bibliothèques</t>
+  </si>
+  <si>
+    <t>Plus rapide que prévu, n'a pas été aussi compliqué que les autres version</t>
   </si>
 </sst>
 </file>
@@ -353,10 +377,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -365,7 +389,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,51 +720,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3"/>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
         <v>18</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3"/>
       <c r="F3" t="s">
         <v>34</v>
       </c>
@@ -754,14 +778,14 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
         <v>10</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3"/>
       <c r="F4" t="s">
         <v>19</v>
       </c>
@@ -775,56 +799,56 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
         <v>12</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3"/>
       <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>12</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3"/>
       <c r="F7" t="s">
         <v>18</v>
       </c>
@@ -838,14 +862,14 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>24</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
         <v>12</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3"/>
       <c r="F8" t="s">
         <v>26</v>
       </c>
@@ -859,35 +883,35 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="3"/>
       <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="3"/>
       <c r="F10" t="s">
         <v>23</v>
       </c>
@@ -901,255 +925,275 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="3"/>
       <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
         <v>8.5</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="3"/>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="78.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
         <v>9</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="3"/>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
       <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>8</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
         <v>8.25</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
       <c r="F15" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>5</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="3"/>
       <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>8</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="3"/>
       <c r="F17" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <f>SUM(B3:C24)</f>
         <v>119</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
         <f>SUM(D3:E24)</f>
         <v>97.75</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="G10:I10"/>
@@ -1166,45 +1210,25 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1226,51 +1250,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3"/>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3"/>
       <c r="F3" t="s">
         <v>24</v>
       </c>
@@ -1284,14 +1308,14 @@
       <c r="A4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3"/>
       <c r="F4" t="s">
         <v>22</v>
       </c>
@@ -1305,35 +1329,35 @@
       <c r="A5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
       <c r="F5" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>6</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
         <v>6</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3"/>
       <c r="F6" t="s">
         <v>18</v>
       </c>
@@ -1347,14 +1371,14 @@
       <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3"/>
       <c r="F7" t="s">
         <v>48</v>
       </c>
@@ -1368,14 +1392,14 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3"/>
       <c r="F8" t="s">
         <v>48</v>
       </c>
@@ -1389,31 +1413,31 @@
       <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" t="s">
         <v>22</v>
       </c>
@@ -1427,14 +1451,14 @@
       <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
         <v>16</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="3"/>
       <c r="F11" t="s">
         <v>50</v>
       </c>
@@ -1448,14 +1472,14 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
         <v>8</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="3"/>
       <c r="F12" t="s">
         <v>49</v>
       </c>
@@ -1469,98 +1493,98 @@
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
         <v>12</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="3"/>
       <c r="F13" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>5</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
         <v>2</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
       <c r="F14" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>3</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
       <c r="F15" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>2</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="3"/>
       <c r="F16" t="s">
         <v>57</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>3</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
         <v>6</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="3"/>
       <c r="F17" t="s">
         <v>58</v>
       </c>
@@ -1571,139 +1595,122 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <f>SUM(B3:C25)</f>
         <v>68</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3">
         <f>SUM(D3:E25)</f>
         <v>69</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="G10:I10"/>
@@ -1713,31 +1720,48 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1747,62 +1771,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8331770-D25B-4F25-A224-45FD2E38D898}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:I14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="100.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3"/>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="2">
+        <v>88</v>
+      </c>
+      <c r="B3" s="3">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3"/>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1810,82 +1837,100 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="2">
+        <v>74</v>
+      </c>
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="2">
+        <v>75</v>
+      </c>
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="G5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="2">
+        <v>76</v>
+      </c>
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="2">
+        <v>77</v>
+      </c>
+      <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3"/>
       <c r="F7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="2">
+        <v>78</v>
+      </c>
+      <c r="B8" s="3">
         <v>8</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3"/>
       <c r="F8" t="s">
         <v>22</v>
       </c>
@@ -1895,35 +1940,43 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="2">
+        <v>79</v>
+      </c>
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3"/>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="2">
+        <v>80</v>
+      </c>
+      <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
@@ -1931,14 +1984,16 @@
       <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1948,12 +2003,14 @@
       <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" t="s">
         <v>42</v>
       </c>
@@ -1965,36 +2022,40 @@
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>3</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>10</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
         <v>6.5</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
       <c r="F14" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2003,55 +2064,59 @@
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="3"/>
       <c r="F15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>3</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3"/>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>4</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
         <v>5</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="3"/>
       <c r="F17" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -2060,102 +2125,173 @@
       <c r="A18" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>5</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E18" s="3"/>
       <c r="F18" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="G18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <f>SUM(B3:C25)</f>
         <v>69</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3">
         <f>SUM(D3:E25)</f>
-        <v>13.5</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+        <v>57.5</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="G26:I26"/>
@@ -2165,73 +2301,6 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
